--- a/Files/Examples.xlsx
+++ b/Files/Examples.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2. Bildung\1. Masterstudium\Masterthesis\PostProcessing\Postprocessing\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.grubert\Downloads\Git\PostProcessing\Postprocessing\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABDAB83-DA1B-4F5A-AE02-94CAE10DF096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A470C61-3180-4058-8BD7-AC986AD87081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E131FB01-FAB8-4DA1-890D-A22AC9E4B722}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E131FB01-FAB8-4DA1-890D-A22AC9E4B722}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>X-Achse</t>
   </si>
@@ -405,170 +408,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14211714-20A2-4716-ABD3-23CB5DAFA34B}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1.5</v>
       </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2.5</v>
       </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>3.5</v>
       </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>4.5</v>
       </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>5</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CF8B3B-2498-4C01-B796-056AC01F48DA}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49B5000-F204-4C32-A9A9-191EE29883E8}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA241DF-FAB1-4A0C-98E2-CB0665A1C87A}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Files/Examples.xlsx
+++ b/Files/Examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.grubert\Downloads\Git\PostProcessing\Postprocessing\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A470C61-3180-4058-8BD7-AC986AD87081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30C0641-B1F4-466F-8885-98CCC011C0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E131FB01-FAB8-4DA1-890D-A22AC9E4B722}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="17640" xr2:uid="{E131FB01-FAB8-4DA1-890D-A22AC9E4B722}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
@@ -41,16 +41,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>X-Achse</t>
-  </si>
-  <si>
-    <t>Wert_1</t>
-  </si>
-  <si>
     <t>Wert_2</t>
   </si>
   <si>
     <t>Wert_3</t>
+  </si>
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
   </si>
 </sst>
 </file>
@@ -410,18 +410,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14211714-20A2-4716-ABD3-23CB5DAFA34B}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,10 +522,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,18 +617,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49B5000-F204-4C32-A9A9-191EE29883E8}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,10 +726,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
